--- a/microproyecto2/microproyecto2.xlsx
+++ b/microproyecto2/microproyecto2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvggt-my.sharepoint.com/personal/her241118_uvg_edu_gt/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive - UVG\Semestre 3\Estadística II\REPOSITORIO ESTHEBAN\estadistica2\microproyecto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58B74CDA-5FD3-FC4D-9DAF-E1E528768A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB512EE1-FF2B-41B6-8B47-C1D2C2B6FDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="660" windowWidth="14180" windowHeight="17200" xr2:uid="{EAFEF1AA-694B-E64D-93F8-B97A87E5C312}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EAFEF1AA-694B-E64D-93F8-B97A87E5C312}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>De Leon</t>
   </si>
@@ -52,12 +52,15 @@
   <si>
     <t>Ariel</t>
   </si>
+  <si>
+    <t>Estudiante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +73,24 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,9 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,15 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C62626C-4D90-A34A-95E9-06D5A2B2EE4D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:H25"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -449,8 +475,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -463,7 +489,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +503,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,7 +517,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -505,7 +531,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -518,6 +544,9 @@
       <c r="D6">
         <v>920</v>
       </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
